--- a/PhoenixCI/Excel_Template/30290.xlsx
+++ b/PhoenixCI/Excel_Template/30290.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PB\CI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20DCFA35-AAA4-4FB6-AAD6-2B9E9F42D64C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{959580FD-044A-4F09-B758-4CC8960D850E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="907" activeTab="1"/>
+    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="14145" tabRatio="907"/>
   </bookViews>
   <sheets>
     <sheet name="股價指數暨黃金類公告表(中文版)" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1705,15 +1704,16 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="流程"/>
       <sheetName val="前次部位限制"/>
-      <sheetName val="流程"/>
       <sheetName val="所需資料"/>
       <sheetName val="股價指數"/>
       <sheetName val="現階段_產出_非個股類"/>
       <sheetName val="英文公告"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
         <row r="1">
           <cell r="B1" t="str">
             <v xml:space="preserve">最新更新(生效)日期：2013年2月20日 </v>
@@ -2059,7 +2059,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -15315,9 +15314,9 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="上市股票_資料"/>
       <sheetName val="流程"/>
       <sheetName val="現行部位限制"/>
+      <sheetName val="上市股票_資料"/>
       <sheetName val="OI資料"/>
       <sheetName val="上市股票"/>
       <sheetName val="OI檢視"/>
@@ -15671,7 +15670,7 @@
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -16273,7 +16272,7 @@
   </sheetPr>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15:IV15"/>
     </sheetView>

--- a/PhoenixCI/Excel_Template/30290.xlsx
+++ b/PhoenixCI/Excel_Template/30290.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PB\CI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{959580FD-044A-4F09-B758-4CC8960D850E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20DCFA35-AAA4-4FB6-AAD6-2B9E9F42D64C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="32760" windowWidth="28800" windowHeight="14145" tabRatio="907"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="907" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="股價指數暨黃金類公告表(中文版)" sheetId="1" r:id="rId1"/>
@@ -61,6 +61,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1704,16 +1705,15 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="前次部位限制"/>
       <sheetName val="流程"/>
-      <sheetName val="前次部位限制"/>
       <sheetName val="所需資料"/>
       <sheetName val="股價指數"/>
       <sheetName val="現階段_產出_非個股類"/>
       <sheetName val="英文公告"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0">
         <row r="1">
           <cell r="B1" t="str">
             <v xml:space="preserve">最新更新(生效)日期：2013年2月20日 </v>
@@ -2059,6 +2059,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -15314,9 +15315,9 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="上市股票_資料"/>
       <sheetName val="流程"/>
       <sheetName val="現行部位限制"/>
-      <sheetName val="上市股票_資料"/>
       <sheetName val="OI資料"/>
       <sheetName val="上市股票"/>
       <sheetName val="OI檢視"/>
@@ -15670,7 +15671,7 @@
   </sheetPr>
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -16272,7 +16273,7 @@
   </sheetPr>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A15" sqref="A15:IV15"/>
     </sheetView>

--- a/PhoenixCI/Excel_Template/30290.xlsx
+++ b/PhoenixCI/Excel_Template/30290.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\PB\CI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\開發\PhoenixCI\20190802\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20DCFA35-AAA4-4FB6-AAD6-2B9E9F42D64C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="907" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14145" tabRatio="907"/>
   </bookViews>
   <sheets>
     <sheet name="股價指數暨黃金類公告表(中文版)" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'個股類公告表(英文版)'!$A$2:$Y$1006</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'股價指數暨黃金類公告表(中文版)'!$A$1:$E$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'股價指數暨黃金類公告表(中文版)'!$A$1:$E$42</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'個股類公告表(中文版)'!$A$1:$I$1016</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'個股類公告表(英文版)'!$A$1:$J$1007</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'個股類公告表(中文版)'!$1:$4</definedName>
@@ -56,20 +55,12 @@
     <definedName name="部位限制數分級">#REF!</definedName>
     <definedName name="資料">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" fullCalcOnLoad="1" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="137">
   <si>
     <t>自然人</t>
   </si>
@@ -623,6 +614,26 @@
     <t xml:space="preserve">Effective on </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>G2F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>富櫃200期貨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>美國那斯達克100期貨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPF</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -633,7 +644,7 @@
     <numFmt numFmtId="177" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="178" formatCode="#,##0_ "/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="46">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -929,8 +940,8 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color indexed="12"/>
+      <sz val="13"/>
+      <color indexed="10"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -938,8 +949,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color indexed="10"/>
+      <sz val="14"/>
+      <color indexed="12"/>
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
@@ -968,6 +979,14 @@
       <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1185,7 +1204,7 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1524,12 +1543,35 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1539,25 +1581,27 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1567,6 +1611,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1583,17 +1633,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1627,10 +1673,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1645,10 +1687,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1705,15 +1743,16 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="流程"/>
       <sheetName val="前次部位限制"/>
-      <sheetName val="流程"/>
       <sheetName val="所需資料"/>
       <sheetName val="股價指數"/>
       <sheetName val="現階段_產出_非個股類"/>
       <sheetName val="英文公告"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
         <row r="1">
           <cell r="B1" t="str">
             <v xml:space="preserve">最新更新(生效)日期：2013年2月20日 </v>
@@ -2059,7 +2098,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -15315,9 +15353,9 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="上市股票_資料"/>
       <sheetName val="流程"/>
       <sheetName val="現行部位限制"/>
+      <sheetName val="上市股票_資料"/>
       <sheetName val="OI資料"/>
       <sheetName val="上市股票"/>
       <sheetName val="OI檢視"/>
@@ -15420,23 +15458,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -15472,23 +15493,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -15669,10 +15673,10 @@
     <tabColor theme="9" tint="-0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -15690,33 +15694,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24.75" customHeight="1">
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
       <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="19.5">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:12" ht="20.45" customHeight="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="96"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="102"/>
       <c r="C3" s="37" t="s">
         <v>0</v>
       </c>
@@ -15750,11 +15754,11 @@
       <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="106" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="5"/>
       <c r="G5" s="7"/>
       <c r="L5" s="12"/>
@@ -15820,33 +15824,33 @@
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A11" s="38" t="s">
-        <v>27</v>
+      <c r="A11" s="93" t="s">
+        <v>132</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>28</v>
+      <c r="B11" s="94" t="s">
+        <v>133</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
     </row>
-    <row r="12" spans="1:12" ht="23.25" customHeight="1">
+    <row r="12" spans="1:12" ht="25.5" customHeight="1">
       <c r="A12" s="38" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:12" ht="23.25" customHeight="1">
+    <row r="13" spans="1:12" ht="23.25" hidden="1" customHeight="1">
       <c r="A13" s="38" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -15854,410 +15858,432 @@
     </row>
     <row r="14" spans="1:12" ht="23.25" customHeight="1">
       <c r="A14" s="38" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
     </row>
-    <row r="15" spans="1:12" s="11" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A15" s="99" t="s">
+    <row r="15" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A15" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A16" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="94" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" s="11" customFormat="1" ht="21.75" hidden="1" customHeight="1">
+      <c r="A17" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B17" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="97" t="s">
+      <c r="C17" s="100" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="G15" s="12"/>
-      <c r="L15" s="12"/>
-    </row>
-    <row r="16" spans="1:12" ht="39" customHeight="1">
-      <c r="A16" s="100"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="16" t="s">
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="G17" s="12"/>
+      <c r="L17" s="12"/>
+    </row>
+    <row r="18" spans="1:12" ht="39" hidden="1" customHeight="1">
+      <c r="A18" s="99"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D18" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E18" s="16" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="13" t="s">
+    <row r="19" spans="1:12" hidden="1">
+      <c r="A19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B19" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="45"/>
-    </row>
-    <row r="18" spans="1:12" s="11" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A18" s="99" t="s">
+      <c r="C19" s="103"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="45"/>
+    </row>
+    <row r="20" spans="1:12" s="11" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A20" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="99" t="s">
+      <c r="B20" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C20" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="G18" s="12"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A19" s="100"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="16" t="s">
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="G20" s="12"/>
+      <c r="L20" s="12"/>
+    </row>
+    <row r="21" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A21" s="99"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D21" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E21" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A20" s="13" t="s">
+    <row r="22" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A22" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B22" s="14" t="s">
         <v>36</v>
-      </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:12" ht="23.25" customHeight="1">
-      <c r="A21" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>95</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A23" s="99" t="s">
+    <row r="23" spans="1:12" ht="23.25" customHeight="1">
+      <c r="A23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A25" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="99" t="s">
+      <c r="B25" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C25" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-    </row>
-    <row r="24" spans="1:12" ht="19.5" customHeight="1">
-      <c r="A24" s="100"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="16" t="s">
+      <c r="D25" s="100"/>
+      <c r="E25" s="100"/>
+    </row>
+    <row r="26" spans="1:12" ht="19.5" customHeight="1">
+      <c r="A26" s="99"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D26" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E26" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A25" s="13" t="s">
+    <row r="27" spans="1:12" s="11" customFormat="1" ht="21" customHeight="1">
+      <c r="A27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B27" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="G25" s="12"/>
-      <c r="L25" s="12"/>
-    </row>
-    <row r="26" spans="1:12" s="11" customFormat="1" ht="21" customHeight="1">
-      <c r="A26" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="G26" s="12"/>
-      <c r="L26" s="12"/>
-    </row>
-    <row r="27" spans="1:12" ht="21" customHeight="1">
-      <c r="A27" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>81</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
-    </row>
-    <row r="28" spans="1:12" ht="21" customHeight="1">
+      <c r="G27" s="12"/>
+      <c r="L27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" s="11" customFormat="1" ht="21" customHeight="1">
       <c r="A28" s="13" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
+      <c r="G28" s="12"/>
+      <c r="L28" s="12"/>
     </row>
     <row r="29" spans="1:12" ht="21" customHeight="1">
-      <c r="A29" s="47" t="s">
-        <v>89</v>
+      <c r="A29" s="13" t="s">
+        <v>80</v>
       </c>
-      <c r="B29" s="48" t="s">
-        <v>91</v>
+      <c r="B29" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
     </row>
     <row r="30" spans="1:12" ht="21" customHeight="1">
-      <c r="A30" s="47" t="s">
-        <v>88</v>
+      <c r="A30" s="13" t="s">
+        <v>78</v>
       </c>
-      <c r="B30" s="48" t="s">
-        <v>90</v>
+      <c r="B30" s="14" t="s">
+        <v>82</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:12" ht="21" customHeight="1">
-      <c r="A31" s="95" t="s">
+      <c r="A31" s="47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+    </row>
+    <row r="32" spans="1:12" ht="21" customHeight="1">
+      <c r="A32" s="47" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:12" ht="21" customHeight="1">
+      <c r="A33" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="95" t="s">
+      <c r="B33" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="97" t="s">
+      <c r="C33" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-    </row>
-    <row r="32" spans="1:12" ht="21" customHeight="1">
-      <c r="A32" s="96"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="37" t="s">
+      <c r="D33" s="100"/>
+      <c r="E33" s="100"/>
+    </row>
+    <row r="34" spans="1:12" ht="21" customHeight="1">
+      <c r="A34" s="102"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D34" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E34" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="21" customHeight="1">
-      <c r="A33" s="13" t="s">
+    <row r="35" spans="1:12" ht="21" customHeight="1">
+      <c r="A35" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B35" s="14" t="s">
         <v>47</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:12" s="11" customFormat="1" ht="20.45" customHeight="1">
-      <c r="A34" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="G34" s="12"/>
-      <c r="L34" s="12"/>
-    </row>
-    <row r="35" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A35" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" s="11" customFormat="1" ht="20.45" customHeight="1">
       <c r="A36" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:12" ht="21.75" customHeight="1">
+      <c r="G36" s="12"/>
+      <c r="L36" s="12"/>
+    </row>
+    <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="13" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
     </row>
-    <row r="38" spans="1:12" ht="19.5">
-      <c r="A38" s="95" t="s">
+    <row r="38" spans="1:12" hidden="1">
+      <c r="A38" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+    </row>
+    <row r="39" spans="1:12" ht="21.75" hidden="1" customHeight="1">
+      <c r="A39" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+    </row>
+    <row r="40" spans="1:12" ht="19.5">
+      <c r="A40" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="95" t="s">
+      <c r="B40" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C38" s="97" t="s">
+      <c r="C40" s="100" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39" s="96"/>
-      <c r="B39" s="96"/>
-      <c r="C39" s="37" t="s">
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="102"/>
+      <c r="B41" s="102"/>
+      <c r="C41" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D41" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="16" t="s">
+      <c r="E41" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
-      <c r="A40" s="38" t="s">
+    <row r="42" spans="1:12">
+      <c r="A42" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="43" t="s">
+      <c r="B42" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="38" t="s">
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="43" t="s">
+      <c r="B43" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-    </row>
-    <row r="42" spans="1:12" ht="19.5">
-      <c r="A42" s="99" t="s">
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:12" ht="19.5">
+      <c r="A44" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="99" t="s">
+      <c r="B44" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="97" t="s">
+      <c r="C44" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="100"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="16" t="s">
+      <c r="D44" s="100"/>
+      <c r="E44" s="100"/>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" s="99"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D45" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E45" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="13" t="s">
+    <row r="46" spans="1:12">
+      <c r="A46" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B46" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="36" t="s">
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="36" t="s">
         <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:E23"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:E40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16271,11 +16297,11 @@
     <tabColor rgb="FFC00000"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15:IV15"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
@@ -16291,22 +16317,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A1" s="105" t="s">
+      <c r="A1" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
       <c r="D1" s="35" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="18" customFormat="1" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="104"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" ht="43.5" customHeight="1" thickTop="1">
       <c r="A3" s="19" t="s">
@@ -16334,11 +16360,11 @@
       <c r="A5" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="108"/>
-      <c r="D5" s="109"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="118"/>
     </row>
     <row r="6" spans="1:4" s="24" customFormat="1" ht="21.75" customHeight="1">
       <c r="A6" s="22" t="s">
@@ -16381,345 +16407,361 @@
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:4" s="24" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A11" s="39" t="s">
-        <v>27</v>
+      <c r="A11" s="97" t="s">
+        <v>132</v>
       </c>
       <c r="B11" s="23"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23"/>
     </row>
-    <row r="12" spans="1:4" s="18" customFormat="1" ht="23.25" customHeight="1">
+    <row r="12" spans="1:4" s="24" customFormat="1" ht="21.75" customHeight="1">
       <c r="A12" s="39" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="23"/>
     </row>
-    <row r="13" spans="1:4" s="18" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A13" s="46" t="s">
-        <v>85</v>
+    <row r="13" spans="1:4" s="18" customFormat="1" ht="23.25" hidden="1" customHeight="1">
+      <c r="A13" s="39" t="s">
+        <v>76</v>
       </c>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
     </row>
-    <row r="14" spans="1:4" s="18" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+    <row r="14" spans="1:4" s="18" customFormat="1" ht="23.25" customHeight="1">
       <c r="A14" s="46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-    </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" ht="37.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A15" s="102" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" s="18" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A15" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+    </row>
+    <row r="16" spans="1:4" s="18" customFormat="1" ht="23.25" customHeight="1" thickBot="1">
+      <c r="A16" s="96" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+    </row>
+    <row r="17" spans="1:4" s="18" customFormat="1" ht="37.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A17" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
-    </row>
-    <row r="16" spans="1:4" s="24" customFormat="1" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A16" s="25" t="s">
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="111"/>
+    </row>
+    <row r="18" spans="1:4" s="24" customFormat="1" ht="39.75" customHeight="1" thickTop="1">
+      <c r="A18" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B18" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C18" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D18" s="28" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:4" s="24" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A17" s="22" t="s">
+    <row r="19" spans="1:4" s="24" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A19" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-    </row>
-    <row r="18" spans="1:4" s="24" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A18" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-    </row>
-    <row r="19" spans="1:4" s="18" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A19" s="22" t="s">
-        <v>96</v>
       </c>
       <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
     </row>
-    <row r="20" spans="1:4" s="18" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A20" s="102" t="s">
+    <row r="20" spans="1:4" s="24" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A20" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="1:4" s="18" customFormat="1" ht="32.25" customHeight="1" thickBot="1">
+      <c r="A21" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="1:4" s="18" customFormat="1" ht="40.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A22" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="104"/>
-    </row>
-    <row r="21" spans="1:4" s="18" customFormat="1" ht="39.75" thickTop="1">
-      <c r="A21" s="25" t="s">
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="111"/>
+    </row>
+    <row r="23" spans="1:4" s="18" customFormat="1" ht="39.75" thickTop="1">
+      <c r="A23" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B23" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C23" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D23" s="28" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="18" customFormat="1" ht="19.5">
-      <c r="A22" s="22" t="s">
+    <row r="24" spans="1:4" s="18" customFormat="1" ht="19.5">
+      <c r="A24" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="23"/>
-    </row>
-    <row r="23" spans="1:4" s="18" customFormat="1" ht="19.5">
-      <c r="A23" s="22" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" s="18" customFormat="1" ht="19.5">
+      <c r="A25" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-    </row>
-    <row r="24" spans="1:4" s="18" customFormat="1" ht="19.5">
-      <c r="A24" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-    </row>
-    <row r="25" spans="1:4" s="18" customFormat="1" ht="19.5">
-      <c r="A25" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" s="18" customFormat="1" ht="19.5">
       <c r="A26" s="39" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B26" s="44"/>
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
     </row>
-    <row r="27" spans="1:4" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+    <row r="27" spans="1:4" s="18" customFormat="1" ht="19.5">
       <c r="A27" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+    </row>
+    <row r="28" spans="1:4" s="18" customFormat="1" ht="19.5">
+      <c r="A28" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+    </row>
+    <row r="29" spans="1:4" s="18" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
+      <c r="A29" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-    </row>
-    <row r="28" spans="1:4" s="24" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A28" s="102" t="s">
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+    </row>
+    <row r="30" spans="1:4" s="24" customFormat="1" ht="21.75" hidden="1" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A30" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="103"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="104"/>
-    </row>
-    <row r="29" spans="1:4" s="24" customFormat="1" ht="39.75" customHeight="1" thickTop="1">
-      <c r="A29" s="25" t="s">
+      <c r="B30" s="110"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="111"/>
+    </row>
+    <row r="31" spans="1:4" s="24" customFormat="1" ht="39.75" hidden="1" customHeight="1" thickTop="1">
+      <c r="A31" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B31" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C31" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D31" s="28" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="24" customFormat="1" ht="90" customHeight="1" thickBot="1">
-      <c r="A30" s="22" t="s">
+    <row r="32" spans="1:4" s="24" customFormat="1" ht="54.75" hidden="1" customHeight="1" thickBot="1">
+      <c r="A32" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="112"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="29"/>
-    </row>
-    <row r="31" spans="1:4" s="24" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A31" s="102" t="s">
+      <c r="B32" s="112"/>
+      <c r="C32" s="113"/>
+      <c r="D32" s="29"/>
+    </row>
+    <row r="33" spans="1:4" s="24" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A33" s="109" t="s">
         <v>72</v>
       </c>
-      <c r="B31" s="103"/>
-      <c r="C31" s="103"/>
-      <c r="D31" s="104"/>
-    </row>
-    <row r="32" spans="1:4" s="24" customFormat="1" ht="39" customHeight="1" thickTop="1">
-      <c r="A32" s="25" t="s">
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="111"/>
+    </row>
+    <row r="34" spans="1:4" s="24" customFormat="1" ht="39" customHeight="1" thickTop="1">
+      <c r="A34" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B34" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C32" s="27" t="s">
+      <c r="C34" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D34" s="28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="18" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A33" s="39" t="s">
+    <row r="35" spans="1:4" s="18" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A35" s="39" t="s">
         <v>46</v>
-      </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-    </row>
-    <row r="34" spans="1:4" s="18" customFormat="1" ht="19.5">
-      <c r="A34" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-    </row>
-    <row r="35" spans="1:4" s="24" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A35" s="22" t="s">
-        <v>50</v>
       </c>
       <c r="B35" s="23"/>
       <c r="C35" s="23"/>
       <c r="D35" s="23"/>
     </row>
-    <row r="36" spans="1:4" ht="19.5">
+    <row r="36" spans="1:4" s="18" customFormat="1" ht="19.5">
       <c r="A36" s="22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
     </row>
-    <row r="37" spans="1:4" ht="19.5" customHeight="1" thickBot="1">
+    <row r="37" spans="1:4" s="24" customFormat="1" ht="21.75" customHeight="1" thickBot="1">
       <c r="A37" s="22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
     </row>
-    <row r="38" spans="1:4" s="34" customFormat="1" ht="21" thickTop="1" thickBot="1">
-      <c r="A38" s="102" t="s">
+    <row r="38" spans="1:4" ht="19.5" hidden="1">
+      <c r="A38" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+    </row>
+    <row r="39" spans="1:4" ht="19.5" hidden="1" customHeight="1" thickBot="1">
+      <c r="A39" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+    </row>
+    <row r="40" spans="1:4" s="34" customFormat="1" ht="21" thickTop="1" thickBot="1">
+      <c r="A40" s="109" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="103"/>
-      <c r="C38" s="103"/>
-      <c r="D38" s="104"/>
-    </row>
-    <row r="39" spans="1:4" ht="39.75" thickTop="1">
-      <c r="A39" s="25" t="s">
+      <c r="B40" s="110"/>
+      <c r="C40" s="110"/>
+      <c r="D40" s="111"/>
+    </row>
+    <row r="41" spans="1:4" ht="39.75" thickTop="1">
+      <c r="A41" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B41" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="27" t="s">
+      <c r="C41" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D41" s="28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="19.5">
-      <c r="A40" s="39" t="s">
+    <row r="42" spans="1:4" ht="19.5">
+      <c r="A42" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-    </row>
-    <row r="41" spans="1:4" ht="20.25" thickBot="1">
-      <c r="A41" s="39" t="s">
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+    </row>
+    <row r="43" spans="1:4" ht="20.25" thickBot="1">
+      <c r="A43" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-    </row>
-    <row r="42" spans="1:4" ht="21" thickTop="1" thickBot="1">
-      <c r="A42" s="102" t="s">
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+    </row>
+    <row r="44" spans="1:4" ht="21" thickTop="1" thickBot="1">
+      <c r="A44" s="109" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="103"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="104"/>
-    </row>
-    <row r="43" spans="1:4" ht="39.75" thickTop="1">
-      <c r="A43" s="25" t="s">
+      <c r="B44" s="110"/>
+      <c r="C44" s="110"/>
+      <c r="D44" s="111"/>
+    </row>
+    <row r="45" spans="1:4" ht="39.75" thickTop="1">
+      <c r="A45" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="26" t="s">
+      <c r="B45" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="C45" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D45" s="28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="19.5">
-      <c r="A44" s="22" t="s">
+    <row r="46" spans="1:4" ht="19.5">
+      <c r="A46" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="110"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="B46" s="40"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-    </row>
-    <row r="47" spans="1:4" ht="19.5">
-      <c r="A47" s="34" t="s">
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="107"/>
+      <c r="B47" s="108"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="B48" s="40"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+    </row>
+    <row r="49" spans="1:4" ht="19.5">
+      <c r="A49" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A38:D38"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A40:D40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -16759,72 +16801,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="22.5" customHeight="1">
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="125" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="118"/>
-      <c r="D1" s="118"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="126"/>
     </row>
     <row r="2" spans="1:14" s="67" customFormat="1" ht="19.5">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="127" t="s">
         <v>116</v>
       </c>
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="C2" s="123" t="s">
+      <c r="C2" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="125" t="s">
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="131" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
+      <c r="H2" s="132"/>
+      <c r="I2" s="132"/>
     </row>
     <row r="3" spans="1:14" s="67" customFormat="1" ht="19.5">
-      <c r="A3" s="121"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="127" t="s">
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="119" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="114" t="s">
+      <c r="E3" s="121" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="114"/>
-      <c r="G3" s="115" t="s">
+      <c r="F3" s="121"/>
+      <c r="G3" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="115" t="s">
+      <c r="H3" s="122" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="115" t="s">
+      <c r="I3" s="122" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="67" customFormat="1" ht="35.25" customHeight="1">
-      <c r="A4" s="122"/>
-      <c r="B4" s="122"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="122"/>
+      <c r="A4" s="120"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
       <c r="E4" s="68" t="s">
         <v>108</v>
       </c>
       <c r="F4" s="68" t="s">
         <v>107</v>
       </c>
-      <c r="G4" s="116"/>
-      <c r="H4" s="117"/>
-      <c r="I4" s="117"/>
+      <c r="G4" s="123"/>
+      <c r="H4" s="124"/>
+      <c r="I4" s="124"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1">
       <c r="A5" s="59"/>
@@ -28218,17 +28260,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="B1:H1"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:C4"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -28265,14 +28307,14 @@
   <sheetData>
     <row r="1" spans="1:8" s="76" customFormat="1" ht="22.5" thickTop="1" thickBot="1">
       <c r="A1" s="92"/>
-      <c r="B1" s="128" t="s">
+      <c r="B1" s="133" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="130"/>
-      <c r="G1" s="130"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
       <c r="H1" s="91" t="s">
         <v>129</v>
       </c>
